--- a/Results/table_transitions.xlsx
+++ b/Results/table_transitions.xlsx
@@ -396,13 +396,13 @@
         </is>
       </c>
       <c r="C2">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D2">
-        <v>0.002462463873681243</v>
+        <v>0.002453710885169151</v>
       </c>
       <c r="E2">
-        <v>0.03383482921159682</v>
+        <v>0.03371439643479945</v>
       </c>
     </row>
     <row r="3">
@@ -420,10 +420,10 @@
         <v>6902</v>
       </c>
       <c r="D3">
-        <v>0.03243497262623652</v>
+        <v>0.03244351059279211</v>
       </c>
       <c r="E3">
-        <v>0.4456641053787047</v>
+        <v>0.4457792417490151</v>
       </c>
     </row>
     <row r="4">
@@ -441,10 +441,10 @@
         <v>1296</v>
       </c>
       <c r="D4">
-        <v>0.006090368664677271</v>
+        <v>0.006091971852833754</v>
       </c>
       <c r="E4">
-        <v>0.08368308904242268</v>
+        <v>0.08370470838984694</v>
       </c>
     </row>
     <row r="5">
@@ -459,13 +459,13 @@
         </is>
       </c>
       <c r="C5">
-        <v>4678</v>
+        <v>4677</v>
       </c>
       <c r="D5">
-        <v>0.02198359923870392</v>
+        <v>0.02198468545964774</v>
       </c>
       <c r="E5">
-        <v>0.3020597920836831</v>
+        <v>0.3020732416198411</v>
       </c>
     </row>
     <row r="6">
@@ -483,10 +483,10 @@
         <v>926</v>
       </c>
       <c r="D6">
-        <v>0.004351606005780211</v>
+        <v>0.004352751493614241</v>
       </c>
       <c r="E6">
-        <v>0.05979208368308904</v>
+        <v>0.05980753084027643</v>
       </c>
     </row>
     <row r="7">
@@ -501,13 +501,13 @@
         </is>
       </c>
       <c r="C7">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D7">
-        <v>0.005455955262106723</v>
+        <v>0.005452690855931447</v>
       </c>
       <c r="E7">
-        <v>0.07496610060050365</v>
+        <v>0.07492088096622102</v>
       </c>
     </row>
     <row r="8">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="C8">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="D8">
-        <v>0.005817805869498814</v>
+        <v>0.005809936118906266</v>
       </c>
       <c r="E8">
-        <v>0.03669017841266078</v>
+        <v>0.03663307646710137</v>
       </c>
     </row>
     <row r="9">
@@ -546,10 +546,10 @@
         <v>529</v>
       </c>
       <c r="D9">
-        <v>0.002485960666369041</v>
+        <v>0.002486615054127358</v>
       </c>
       <c r="E9">
-        <v>0.01567779029103195</v>
+        <v>0.01567871962062833</v>
       </c>
     </row>
     <row r="10">
@@ -567,10 +567,10 @@
         <v>18935</v>
       </c>
       <c r="D10">
-        <v>0.08898235390869147</v>
+        <v>0.08900577703194995</v>
       </c>
       <c r="E10">
-        <v>0.5611700551241776</v>
+        <v>0.5612033195020747</v>
       </c>
     </row>
     <row r="11">
@@ -588,10 +588,10 @@
         <v>11903</v>
       </c>
       <c r="D11">
-        <v>0.05593646467257219</v>
+        <v>0.05595118901564828</v>
       </c>
       <c r="E11">
-        <v>0.3527650998755261</v>
+        <v>0.3527860106698281</v>
       </c>
     </row>
     <row r="12">
@@ -609,10 +609,10 @@
         <v>795</v>
       </c>
       <c r="D12">
-        <v>0.003735990037359901</v>
+        <v>0.003736973474539224</v>
       </c>
       <c r="E12">
-        <v>0.02356114041846956</v>
+        <v>0.02356253704801423</v>
       </c>
     </row>
     <row r="13">
@@ -630,10 +630,10 @@
         <v>342</v>
       </c>
       <c r="D13">
-        <v>0.001607180619845391</v>
+        <v>0.001607603683386685</v>
       </c>
       <c r="E13">
-        <v>0.01013573587813408</v>
+        <v>0.01013633669235329</v>
       </c>
     </row>
     <row r="14">
@@ -648,13 +648,13 @@
         </is>
       </c>
       <c r="C14">
-        <v>11196</v>
+        <v>11158</v>
       </c>
       <c r="D14">
-        <v>0.05261401818651754</v>
+        <v>0.05244924531938196</v>
       </c>
       <c r="E14">
-        <v>0.112157397018753</v>
+        <v>0.1118260172379234</v>
       </c>
     </row>
     <row r="15">
@@ -672,10 +672,10 @@
         <v>2168</v>
       </c>
       <c r="D15">
-        <v>0.01018820930942926</v>
+        <v>0.01019089118591326</v>
       </c>
       <c r="E15">
-        <v>0.02171822407437089</v>
+        <v>0.02172780116255763</v>
       </c>
     </row>
     <row r="16">
@@ -693,10 +693,10 @@
         <v>8860</v>
       </c>
       <c r="D16">
-        <v>0.04163631664277826</v>
+        <v>0.04164727670995915</v>
       </c>
       <c r="E16">
-        <v>0.08875621093123898</v>
+        <v>0.08879534976949288</v>
       </c>
     </row>
     <row r="17">
@@ -711,13 +711,13 @@
         </is>
       </c>
       <c r="C17">
-        <v>75952</v>
+        <v>75946</v>
       </c>
       <c r="D17">
-        <v>0.3569256796447285</v>
+        <v>0.3569914308142842</v>
       </c>
       <c r="E17">
-        <v>0.7608591120371855</v>
+        <v>0.7611344958909602</v>
       </c>
     </row>
     <row r="18">
@@ -735,10 +735,10 @@
         <v>315</v>
       </c>
       <c r="D18">
-        <v>0.001480297939331281</v>
+        <v>0.001480687603119315</v>
       </c>
       <c r="E18">
-        <v>0.003155553774643372</v>
+        <v>0.003156945279615153</v>
       </c>
     </row>
     <row r="19">
@@ -756,10 +756,10 @@
         <v>1333</v>
       </c>
       <c r="D19">
-        <v>0.006264244930566977</v>
+        <v>0.006265893888755705</v>
       </c>
       <c r="E19">
-        <v>0.0133535021638083</v>
+        <v>0.01335939065945079</v>
       </c>
     </row>
     <row r="20">
@@ -774,13 +774,13 @@
         </is>
       </c>
       <c r="C20">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D20">
-        <v>0.001179538992927465</v>
+        <v>0.001175148891364536</v>
       </c>
       <c r="E20">
-        <v>0.007760326490230027</v>
+        <v>0.00773012584644878</v>
       </c>
     </row>
     <row r="21">
@@ -795,13 +795,13 @@
         </is>
       </c>
       <c r="C21">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="D21">
-        <v>0.006071571230527033</v>
+        <v>0.006068468875006464</v>
       </c>
       <c r="E21">
-        <v>0.03994558496166213</v>
+        <v>0.0399183698710615</v>
       </c>
     </row>
     <row r="22">
@@ -819,10 +819,10 @@
         <v>3161</v>
       </c>
       <c r="D22">
-        <v>0.01485467233722597</v>
+        <v>0.01485858258241319</v>
       </c>
       <c r="E22">
-        <v>0.09773064556022755</v>
+        <v>0.09773971120249837</v>
       </c>
     </row>
     <row r="23">
@@ -840,10 +840,10 @@
         <v>1619</v>
       </c>
       <c r="D23">
-        <v>0.007608261472309029</v>
+        <v>0.007610264220476734</v>
       </c>
       <c r="E23">
-        <v>0.05005565174375464</v>
+        <v>0.0500602949816023</v>
       </c>
     </row>
     <row r="24">
@@ -858,13 +858,13 @@
         </is>
       </c>
       <c r="C24">
-        <v>19509</v>
+        <v>19508</v>
       </c>
       <c r="D24">
-        <v>0.09167978570925069</v>
+        <v>0.09169921829095747</v>
       </c>
       <c r="E24">
-        <v>0.6031721493940143</v>
+        <v>0.6031971800500913</v>
       </c>
     </row>
     <row r="25">
@@ -882,10 +882,10 @@
         <v>6512</v>
       </c>
       <c r="D25">
-        <v>0.03060222279658827</v>
+        <v>0.03061027832226343</v>
       </c>
       <c r="E25">
-        <v>0.2013356418501113</v>
+        <v>0.2013543180482978</v>
       </c>
     </row>
     <row r="26">
@@ -900,13 +900,13 @@
         </is>
       </c>
       <c r="C26">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D26">
-        <v>0.002091214549214032</v>
+        <v>0.002082363835497958</v>
       </c>
       <c r="E26">
-        <v>0.01417287725332824</v>
+        <v>0.01411052715400542</v>
       </c>
     </row>
     <row r="27">
@@ -924,10 +924,10 @@
         <v>1704</v>
       </c>
       <c r="D27">
-        <v>0.008007706948001597</v>
+        <v>0.008009814843540677</v>
       </c>
       <c r="E27">
-        <v>0.05427097267341869</v>
+        <v>0.05427615862398471</v>
       </c>
     </row>
     <row r="28">
@@ -945,10 +945,10 @@
         <v>1082</v>
       </c>
       <c r="D28">
-        <v>0.005084705937639512</v>
+        <v>0.005086044401825711</v>
       </c>
       <c r="E28">
-        <v>0.03446079368112619</v>
+        <v>0.03446408663799968</v>
       </c>
     </row>
     <row r="29">
@@ -966,10 +966,10 @@
         <v>5502</v>
       </c>
       <c r="D29">
-        <v>0.02585587067365305</v>
+        <v>0.02586267680115071</v>
       </c>
       <c r="E29">
-        <v>0.1752340913433977</v>
+        <v>0.1752508361204013</v>
       </c>
     </row>
     <row r="30">
@@ -987,10 +987,10 @@
         <v>5473</v>
       </c>
       <c r="D30">
-        <v>0.02571958927606382</v>
+        <v>0.02572635952975242</v>
       </c>
       <c r="E30">
-        <v>0.1743104656347538</v>
+        <v>0.1743271221532091</v>
       </c>
     </row>
     <row r="31">
@@ -1005,13 +1005,13 @@
         </is>
       </c>
       <c r="C31">
-        <v>17192</v>
+        <v>17191</v>
       </c>
       <c r="D31">
-        <v>0.08079137197772504</v>
+        <v>0.08080793836579095</v>
       </c>
       <c r="E31">
-        <v>0.5475507994139754</v>
+        <v>0.5475712693103998</v>
       </c>
     </row>
   </sheetData>
